--- a/HelaMedical/File/NarcoDataBase.xlsx
+++ b/HelaMedical/File/NarcoDataBase.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HelaMedical\HelaMedical\File\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="306">
   <si>
     <t xml:space="preserve"> Тукаев Юрий Васильевич</t>
   </si>
@@ -483,12 +488,6 @@
   </si>
   <si>
     <t>транквилизатор</t>
-  </si>
-  <si>
-    <t>РОГАЧЕВ</t>
-  </si>
-  <si>
-    <t>СВЕТЛОГОРСК</t>
   </si>
   <si>
     <t xml:space="preserve"> Юрчак (Качанова-Парецкая) Жанна Анатольевна</t>
@@ -950,7 +949,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,18 +968,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -995,17 +988,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1287,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,42 +1453,137 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2">
+        <v>1991</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>2003</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA2">
+        <v>30</v>
+      </c>
+      <c r="BB2">
+        <v>41</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>100</v>
@@ -1514,28 +1595,28 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
         <v>107</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="S3" t="s">
         <v>12</v>
@@ -1543,68 +1624,56 @@
       <c r="T3" t="s">
         <v>13</v>
       </c>
+      <c r="U3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" t="s">
+        <v>130</v>
+      </c>
       <c r="X3" t="s">
         <v>109</v>
       </c>
-      <c r="Z3">
-        <v>7</v>
-      </c>
-      <c r="AA3">
-        <v>15</v>
-      </c>
       <c r="AB3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="s">
         <v>17</v>
       </c>
       <c r="AG3" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AH3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AJ3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AS3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AT3" t="s">
         <v>24</v>
       </c>
       <c r="AU3">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="AV3" t="s">
         <v>117</v>
       </c>
       <c r="AW3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>2003</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="s">
         <v>119</v>
       </c>
       <c r="BA3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BB3">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="BC3" t="s">
         <v>27</v>
@@ -1612,16 +1681,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>100</v>
@@ -1633,28 +1702,31 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="S4" t="s">
         <v>12</v>
@@ -1662,56 +1734,62 @@
       <c r="T4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" t="s">
-        <v>128</v>
-      </c>
-      <c r="V4" t="s">
-        <v>129</v>
-      </c>
-      <c r="W4" t="s">
-        <v>130</v>
-      </c>
       <c r="X4" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
       </c>
       <c r="AB4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>16</v>
       </c>
       <c r="AD4" t="s">
         <v>17</v>
       </c>
       <c r="AG4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s">
-        <v>132</v>
+        <v>20</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>22</v>
       </c>
       <c r="AS4" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="s">
         <v>24</v>
       </c>
       <c r="AU4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="AV4" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="s">
         <v>17</v>
       </c>
       <c r="AZ4" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="BA4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="BB4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BC4" t="s">
         <v>27</v>
@@ -1719,16 +1797,16 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>100</v>
@@ -1737,16 +1815,16 @@
         <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
@@ -1755,79 +1833,61 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
         <v>13</v>
       </c>
       <c r="X5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="s">
         <v>17</v>
       </c>
       <c r="AG5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AQ5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AS5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AT5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AU5">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="AV5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AW5" t="s">
         <v>17</v>
       </c>
       <c r="AZ5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="BA5">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="BB5">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="BC5" t="s">
         <v>27</v>
@@ -1835,16 +1895,16 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
         <v>100</v>
@@ -1856,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
@@ -1877,14 +1937,20 @@
         <v>9</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="T6" t="s">
         <v>13</v>
       </c>
+      <c r="U6" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" t="s">
+        <v>129</v>
+      </c>
       <c r="X6" t="s">
         <v>36</v>
       </c>
@@ -1895,13 +1961,22 @@
         <v>17</v>
       </c>
       <c r="AG6" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>39</v>
+        <v>141</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>9</v>
       </c>
       <c r="AS6" t="s">
         <v>40</v>
@@ -1910,10 +1985,10 @@
         <v>41</v>
       </c>
       <c r="AU6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="AV6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="s">
         <v>17</v>
@@ -1922,10 +1997,10 @@
         <v>43</v>
       </c>
       <c r="BA6">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="BB6">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="BC6" t="s">
         <v>27</v>
@@ -1933,16 +2008,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
         <v>100</v>
@@ -1951,31 +2026,31 @@
         <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
         <v>9</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="S7" t="s">
         <v>138</v>
@@ -1989,8 +2064,11 @@
       <c r="V7" t="s">
         <v>129</v>
       </c>
+      <c r="W7" t="s">
+        <v>149</v>
+      </c>
       <c r="X7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="s">
         <v>17</v>
@@ -1999,31 +2077,25 @@
         <v>17</v>
       </c>
       <c r="AG7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="AM7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AN7" t="s">
         <v>114</v>
       </c>
-      <c r="AO7" t="s">
-        <v>9</v>
-      </c>
       <c r="AS7" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="AT7" t="s">
         <v>41</v>
       </c>
       <c r="AU7">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="AV7" t="s">
         <v>25</v>
@@ -2035,10 +2107,10 @@
         <v>43</v>
       </c>
       <c r="BA7">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="BB7">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BC7" t="s">
         <v>27</v>
@@ -2046,252 +2118,350 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
+        <v>158</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="N8" t="s">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="O8" t="s">
+        <v>161</v>
       </c>
       <c r="Q8" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="S8" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="T8" t="s">
         <v>13</v>
       </c>
-      <c r="U8" t="s">
-        <v>139</v>
-      </c>
-      <c r="V8" t="s">
-        <v>129</v>
-      </c>
-      <c r="W8" t="s">
-        <v>149</v>
-      </c>
       <c r="X8" t="s">
-        <v>14</v>
+        <v>109</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
       </c>
       <c r="AB8" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="AC8">
+        <v>205</v>
       </c>
       <c r="AD8" t="s">
         <v>17</v>
       </c>
       <c r="AG8" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>165</v>
       </c>
       <c r="AJ8" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AM8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="AS8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AT8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU8">
+        <v>1993</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA8">
+        <v>23</v>
+      </c>
+      <c r="BB8">
         <v>41</v>
-      </c>
-      <c r="AU8">
-        <v>2008</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA8">
-        <v>47</v>
-      </c>
-      <c r="BB8">
-        <v>55</v>
       </c>
       <c r="BC8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU9">
+        <v>1995</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA9">
+        <v>22</v>
+      </c>
+      <c r="BB9">
+        <v>40</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>162</v>
-      </c>
-      <c r="O10" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="T10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="s">
         <v>15</v>
       </c>
-      <c r="AC10">
-        <v>205</v>
+      <c r="AC10" t="s">
+        <v>185</v>
       </c>
       <c r="AD10" t="s">
         <v>17</v>
       </c>
       <c r="AG10" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AH10" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>188</v>
       </c>
       <c r="AM10" t="s">
-        <v>169</v>
+        <v>189</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>114</v>
       </c>
       <c r="AS10" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AT10" t="s">
         <v>24</v>
       </c>
       <c r="AU10">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="AV10" t="s">
         <v>117</v>
       </c>
       <c r="AW10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>191</v>
       </c>
       <c r="AZ10" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="BA10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BC10" t="s">
         <v>27</v>
@@ -2299,109 +2469,121 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="N11" t="s">
         <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="S11" t="s">
         <v>12</v>
       </c>
       <c r="T11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X11" t="s">
         <v>109</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="s">
         <v>15</v>
       </c>
+      <c r="AC11" t="s">
+        <v>198</v>
+      </c>
       <c r="AD11" t="s">
         <v>17</v>
       </c>
       <c r="AG11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AH11" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AJ11" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>203</v>
       </c>
       <c r="AS11" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="AT11" t="s">
         <v>24</v>
       </c>
       <c r="AU11">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="AV11" t="s">
         <v>117</v>
       </c>
       <c r="AW11" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="AX11">
         <v>1</v>
       </c>
-      <c r="AY11">
-        <v>1</v>
+      <c r="AY11" t="s">
+        <v>205</v>
       </c>
       <c r="AZ11" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="BA11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BC11" t="s">
         <v>27</v>
@@ -2409,28 +2591,28 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="I12" t="s">
         <v>123</v>
@@ -2439,91 +2621,94 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="N12" t="s">
-        <v>9</v>
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>211</v>
       </c>
       <c r="Q12" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="S12" t="s">
         <v>12</v>
       </c>
       <c r="T12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X12" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="s">
         <v>15</v>
       </c>
-      <c r="AC12" t="s">
-        <v>187</v>
+      <c r="AC12">
+        <v>209</v>
       </c>
       <c r="AD12" t="s">
         <v>17</v>
       </c>
       <c r="AG12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK12" t="s">
         <v>188</v>
       </c>
-      <c r="AH12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>190</v>
-      </c>
       <c r="AM12" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="AN12" t="s">
         <v>114</v>
       </c>
       <c r="AS12" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="AT12" t="s">
         <v>24</v>
       </c>
       <c r="AU12">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="AV12" t="s">
         <v>117</v>
       </c>
       <c r="AW12" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="AX12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="AZ12" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="BA12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB12">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="BC12" t="s">
         <v>27</v>
@@ -2531,28 +2716,28 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="I13" t="s">
         <v>123</v>
@@ -2561,91 +2746,76 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L13" t="s">
         <v>105</v>
       </c>
       <c r="M13" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="N13" t="s">
         <v>107</v>
       </c>
       <c r="Q13" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="S13" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="T13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="s">
         <v>17</v>
       </c>
       <c r="AG13" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AH13" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="AJ13" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="AM13" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="AN13" t="s">
-        <v>205</v>
+        <v>114</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>229</v>
       </c>
       <c r="AS13" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="AT13" t="s">
         <v>24</v>
       </c>
       <c r="AU13">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="AV13" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="AW13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX13">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BA13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB13">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="BC13" t="s">
         <v>27</v>
@@ -2653,52 +2823,49 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
         <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="N14" t="s">
         <v>107</v>
       </c>
-      <c r="O14" t="s">
-        <v>213</v>
-      </c>
       <c r="Q14" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="S14" t="s">
         <v>12</v>
@@ -2707,70 +2874,61 @@
         <v>13</v>
       </c>
       <c r="X14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z14">
+        <v>236</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE14">
         <v>1</v>
       </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC14">
-        <v>209</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>17</v>
+      <c r="AF14">
+        <v>2</v>
       </c>
       <c r="AG14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AH14" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="AJ14" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="AK14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AN14" t="s">
         <v>114</v>
       </c>
       <c r="AS14" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AT14" t="s">
         <v>24</v>
       </c>
       <c r="AU14">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="AV14" t="s">
         <v>117</v>
       </c>
       <c r="AW14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="BA14">
         <v>21</v>
       </c>
       <c r="BB14">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="BC14" t="s">
         <v>27</v>
@@ -2778,28 +2936,28 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="I15" t="s">
         <v>123</v>
@@ -2808,76 +2966,82 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="N15" t="s">
         <v>107</v>
       </c>
       <c r="Q15" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="S15" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="T15" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" t="s">
-        <v>14</v>
+        <v>247</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
       </c>
       <c r="AB15" t="s">
         <v>17</v>
       </c>
+      <c r="AC15" t="s">
+        <v>248</v>
+      </c>
       <c r="AD15" t="s">
         <v>17</v>
       </c>
       <c r="AG15" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AH15" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="AJ15" t="s">
-        <v>229</v>
+        <v>251</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>188</v>
       </c>
       <c r="AM15" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AN15" t="s">
         <v>114</v>
       </c>
-      <c r="AO15" t="s">
-        <v>231</v>
-      </c>
       <c r="AS15" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="AT15" t="s">
         <v>24</v>
       </c>
       <c r="AU15">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="AV15" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="AW15" t="s">
         <v>17</v>
       </c>
       <c r="AZ15" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="BA15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB15">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="BC15" t="s">
         <v>27</v>
@@ -2885,112 +3049,115 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E16" t="s">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" t="s">
-        <v>17</v>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="N16" t="s">
         <v>107</v>
       </c>
       <c r="Q16" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="S16" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="T16" t="s">
         <v>13</v>
       </c>
-      <c r="X16" t="s">
-        <v>238</v>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>16</v>
       </c>
       <c r="AB16" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>259</v>
       </c>
       <c r="AD16" t="s">
         <v>17</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>2</v>
-      </c>
       <c r="AG16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AH16" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AJ16" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AK16" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="AM16" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="AS16" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="AT16" t="s">
         <v>24</v>
       </c>
       <c r="AU16">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="AV16" t="s">
         <v>117</v>
       </c>
       <c r="AW16" t="s">
-        <v>17</v>
+        <v>118</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>2</v>
       </c>
       <c r="AZ16" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="BA16">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="BB16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BC16" t="s">
         <v>27</v>
@@ -2998,97 +3165,106 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E17" t="s">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
         <v>107</v>
       </c>
+      <c r="O17" t="s">
+        <v>267</v>
+      </c>
+      <c r="P17" t="s">
+        <v>268</v>
+      </c>
       <c r="Q17" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="S17" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="T17" t="s">
-        <v>249</v>
+        <v>13</v>
+      </c>
+      <c r="X17" t="s">
+        <v>109</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>250</v>
+        <v>15</v>
+      </c>
+      <c r="AC17">
+        <v>219</v>
       </c>
       <c r="AD17" t="s">
         <v>17</v>
       </c>
       <c r="AG17" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AH17" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="AJ17" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AK17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="AS17" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AT17" t="s">
         <v>24</v>
       </c>
       <c r="AU17">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="AV17" t="s">
         <v>117</v>
@@ -3097,13 +3273,13 @@
         <v>17</v>
       </c>
       <c r="AZ17" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="BA17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB17">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BC17" t="s">
         <v>27</v>
@@ -3111,28 +3287,28 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -3141,85 +3317,76 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="S18" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s">
         <v>13</v>
       </c>
-      <c r="Z18">
-        <v>6</v>
-      </c>
-      <c r="AA18">
-        <v>16</v>
+      <c r="X18" t="s">
+        <v>14</v>
       </c>
       <c r="AB18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="s">
         <v>17</v>
       </c>
       <c r="AG18" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="AH18" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="AJ18" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AM18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AS18" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="AT18" t="s">
         <v>24</v>
       </c>
       <c r="AU18">
-        <v>1984</v>
+        <v>1996</v>
       </c>
       <c r="AV18" t="s">
         <v>117</v>
       </c>
       <c r="AW18" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="AX18">
-        <v>5</v>
-      </c>
-      <c r="AY18">
         <v>2</v>
       </c>
+      <c r="AY18" t="s">
+        <v>280</v>
+      </c>
       <c r="AZ18" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="BA18">
+        <v>28</v>
+      </c>
+      <c r="BB18">
         <v>40</v>
-      </c>
-      <c r="BB18">
-        <v>44</v>
       </c>
       <c r="BC18" t="s">
         <v>27</v>
@@ -3227,121 +3394,118 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
+        <v>123</v>
+      </c>
+      <c r="J19" t="s">
+        <v>284</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="L19" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="N19" t="s">
         <v>107</v>
       </c>
-      <c r="O19" t="s">
-        <v>269</v>
-      </c>
-      <c r="P19" t="s">
-        <v>270</v>
-      </c>
       <c r="Q19" t="s">
-        <v>271</v>
+        <v>287</v>
+      </c>
+      <c r="R19" t="s">
+        <v>288</v>
       </c>
       <c r="S19" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="T19" t="s">
         <v>13</v>
       </c>
       <c r="X19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z19">
-        <v>2</v>
-      </c>
-      <c r="AA19">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="AB19" t="s">
         <v>15</v>
       </c>
-      <c r="AC19">
-        <v>219</v>
-      </c>
       <c r="AD19" t="s">
         <v>17</v>
       </c>
       <c r="AG19" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="AH19" t="s">
         <v>131</v>
       </c>
       <c r="AJ19" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="AK19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AM19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN19" t="s">
-        <v>205</v>
+        <v>114</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>291</v>
       </c>
       <c r="AS19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AT19" t="s">
         <v>24</v>
       </c>
       <c r="AU19">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="AV19" t="s">
         <v>117</v>
       </c>
       <c r="AW19" t="s">
-        <v>17</v>
+        <v>169</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>292</v>
       </c>
       <c r="AZ19" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="BA19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB19">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="BC19" t="s">
         <v>27</v>
@@ -3349,28 +3513,28 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -3379,330 +3543,100 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
         <v>105</v>
       </c>
       <c r="M20" t="s">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="N20" t="s">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>297</v>
       </c>
       <c r="Q20" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="S20" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="T20" t="s">
-        <v>13</v>
+        <v>299</v>
+      </c>
+      <c r="U20" t="s">
+        <v>128</v>
+      </c>
+      <c r="V20" t="s">
+        <v>129</v>
       </c>
       <c r="X20" t="s">
-        <v>14</v>
+        <v>109</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>300</v>
       </c>
       <c r="AB20" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>301</v>
       </c>
       <c r="AD20" t="s">
         <v>17</v>
       </c>
       <c r="AG20" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="AH20" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="AJ20" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="AM20" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ20">
+        <v>2015</v>
       </c>
       <c r="AS20" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AT20" t="s">
         <v>24</v>
       </c>
       <c r="AU20">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="AV20" t="s">
         <v>117</v>
       </c>
       <c r="AW20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX20">
-        <v>2</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="BA20">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="BB20">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BC20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" t="s">
-        <v>286</v>
-      </c>
-      <c r="K21" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" t="s">
-        <v>288</v>
-      </c>
-      <c r="N21" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>289</v>
-      </c>
-      <c r="R21" t="s">
-        <v>290</v>
-      </c>
-      <c r="S21" t="s">
-        <v>165</v>
-      </c>
-      <c r="T21" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>293</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU21">
-        <v>1990</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA21">
-        <v>19</v>
-      </c>
-      <c r="BB21">
-        <v>33</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>297</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" t="s">
-        <v>298</v>
-      </c>
-      <c r="N22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O22" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>300</v>
-      </c>
-      <c r="S22" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" t="s">
-        <v>301</v>
-      </c>
-      <c r="U22" t="s">
-        <v>128</v>
-      </c>
-      <c r="V22" t="s">
-        <v>129</v>
-      </c>
-      <c r="X22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z22">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ22">
-        <v>2015</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>306</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU22">
-        <v>1994</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>307</v>
-      </c>
-      <c r="BA22">
-        <v>17</v>
-      </c>
-      <c r="BB22">
-        <v>45</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A9:T9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
